--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -826,6 +826,12 @@
   </si>
   <si>
     <t>光明之旅</t>
+  </si>
+  <si>
+    <t>WJBeta125</t>
+  </si>
+  <si>
+    <t>断桥残雪</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1034,12 +1040,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1900,10 +1906,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H131"/>
+  <dimension ref="C3:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4174,36 +4180,53 @@
     </row>
     <row r="130" spans="3:7">
       <c r="C130" s="3">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="5">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="G130" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="131" spans="3:7">
       <c r="C131" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>252</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" s="3">
+        <v>203</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="5">
+        <v>203</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="257">
   <si>
     <t>Id</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>断桥残雪</t>
+  </si>
+  <si>
+    <t>WJBeta126</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1906,10 +1909,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H132"/>
+  <dimension ref="C3:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4197,36 +4200,51 @@
     </row>
     <row r="131" spans="3:7">
       <c r="C131" s="3">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="5">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="G131"/>
     </row>
     <row r="132" spans="3:7">
       <c r="C132" s="3">
+        <v>202</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="5">
+        <v>202</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7">
+      <c r="C133" s="3">
         <v>203</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="5">
+      <c r="D133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="5">
         <v>203</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F133" s="5" t="s">
         <v>255</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="258">
   <si>
     <t>Id</t>
   </si>
@@ -835,6 +835,9 @@
   </si>
   <si>
     <t>WJBeta126</t>
+  </si>
+  <si>
+    <t>南屏晚钟</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1043,12 +1046,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1912,7 +1915,7 @@
   <dimension ref="C3:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3849,7 +3852,7 @@
       <c r="G110" t="s">
         <v>212</v>
       </c>
-      <c r="H110" s="12"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="3:8">
       <c r="C111" s="3">
@@ -3867,7 +3870,7 @@
       <c r="G111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H111" s="12"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="3">
@@ -3877,7 +3880,7 @@
         <v>9</v>
       </c>
       <c r="E112" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>215</v>
@@ -3885,7 +3888,7 @@
       <c r="G112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H112" s="11"/>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="3:8">
       <c r="C113" s="3">
@@ -3895,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>217</v>
@@ -3903,7 +3906,7 @@
       <c r="G113" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H113" s="11"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="3:8">
       <c r="C114" s="3">
@@ -3949,7 +3952,7 @@
         <v>9</v>
       </c>
       <c r="E116" s="5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>223</v>
@@ -3957,7 +3960,7 @@
       <c r="G116" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="11"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="3">
@@ -3967,7 +3970,7 @@
         <v>9</v>
       </c>
       <c r="E117" s="5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>225</v>
@@ -3975,9 +3978,9 @@
       <c r="G117" t="s">
         <v>226</v>
       </c>
-      <c r="H117" s="11"/>
-    </row>
-    <row r="118" spans="3:7">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="3:8">
       <c r="C118" s="3">
         <v>113</v>
       </c>
@@ -3993,8 +3996,9 @@
       <c r="G118" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="119" spans="3:7">
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="3:8">
       <c r="C119" s="3">
         <v>114</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>229</v>
@@ -4010,6 +4014,7 @@
       <c r="G119" s="13" t="s">
         <v>230</v>
       </c>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="3:7">
       <c r="C120" s="3">
@@ -4211,7 +4216,9 @@
       <c r="F131" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G131"/>
+      <c r="G131" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="132" spans="3:7">
       <c r="C132" s="3">
@@ -4224,10 +4231,10 @@
         <v>202</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="3:7">
@@ -4241,10 +4248,10 @@
         <v>203</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="260">
   <si>
     <t>Id</t>
   </si>
@@ -838,6 +838,12 @@
   </si>
   <si>
     <t>南屏晚钟</t>
+  </si>
+  <si>
+    <t>WJBeta127</t>
+  </si>
+  <si>
+    <t>璀璨梦境</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1046,12 +1052,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1912,10 +1918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H133"/>
+  <dimension ref="C3:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4016,7 +4022,7 @@
       </c>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="3:7">
+    <row r="120" spans="3:8">
       <c r="C120" s="3">
         <v>115</v>
       </c>
@@ -4032,8 +4038,9 @@
       <c r="G120" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="121" spans="3:7">
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="3:8">
       <c r="C121" s="3">
         <v>116</v>
       </c>
@@ -4041,7 +4048,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="5">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>233</v>
@@ -4049,8 +4056,9 @@
       <c r="G121" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="122" spans="3:7">
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="3:8">
       <c r="C122" s="3">
         <v>117</v>
       </c>
@@ -4066,8 +4074,9 @@
       <c r="G122" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="123" spans="3:7">
+      <c r="H122" s="11"/>
+    </row>
+    <row r="123" spans="3:8">
       <c r="C123" s="3">
         <v>118</v>
       </c>
@@ -4075,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="5">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>237</v>
@@ -4083,8 +4092,9 @@
       <c r="G123" s="13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="124" spans="3:7">
+      <c r="H123" s="11"/>
+    </row>
+    <row r="124" spans="3:8">
       <c r="C124" s="3">
         <v>119</v>
       </c>
@@ -4100,8 +4110,9 @@
       <c r="G124" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="125" spans="3:7">
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="3:8">
       <c r="C125" s="3">
         <v>120</v>
       </c>
@@ -4109,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>241</v>
@@ -4117,6 +4128,7 @@
       <c r="G125" t="s">
         <v>242</v>
       </c>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" spans="3:7">
       <c r="C126" s="3">
@@ -4222,36 +4234,53 @@
     </row>
     <row r="132" spans="3:7">
       <c r="C132" s="3">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G132" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="133" spans="3:7">
       <c r="C133" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>256</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7">
+      <c r="C134" s="3">
+        <v>203</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="5">
+        <v>203</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="262">
   <si>
     <t>Id</t>
   </si>
@@ -844,6 +844,12 @@
   </si>
   <si>
     <t>璀璨梦境</t>
+  </si>
+  <si>
+    <t>WJBeta128</t>
+  </si>
+  <si>
+    <t>主播专服</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1918,10 +1924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H134"/>
+  <dimension ref="C3:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4251,36 +4257,53 @@
     </row>
     <row r="133" spans="3:7">
       <c r="C133" s="3">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="5">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="134" spans="3:7">
       <c r="C134" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7">
+      <c r="C135" s="3">
+        <v>203</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="5">
+        <v>203</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="264">
   <si>
     <t>Id</t>
   </si>
@@ -850,6 +850,12 @@
   </si>
   <si>
     <t>主播专服</t>
+  </si>
+  <si>
+    <t>WJBeta129</t>
+  </si>
+  <si>
+    <t>永恒结界</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1553,7 +1559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1575,6 +1581,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1924,10 +1931,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H135"/>
+  <dimension ref="C3:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4136,7 +4143,7 @@
       </c>
       <c r="H125" s="12"/>
     </row>
-    <row r="126" spans="3:7">
+    <row r="126" spans="3:8">
       <c r="C126" s="3">
         <v>121</v>
       </c>
@@ -4152,8 +4159,9 @@
       <c r="G126" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="127" spans="3:7">
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="3:8">
       <c r="C127" s="3">
         <v>122</v>
       </c>
@@ -4161,7 +4169,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>245</v>
@@ -4169,6 +4177,7 @@
       <c r="G127" s="13" t="s">
         <v>106</v>
       </c>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="3:7">
       <c r="C128" s="3">
@@ -4274,36 +4283,53 @@
     </row>
     <row r="134" spans="3:7">
       <c r="C134" s="3">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="5">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="G134" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="135" spans="3:7">
       <c r="C135" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7">
+      <c r="C136" s="3">
+        <v>203</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="5">
+        <v>203</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="266">
   <si>
     <t>Id</t>
   </si>
@@ -856,6 +856,12 @@
   </si>
   <si>
     <t>永恒结界</t>
+  </si>
+  <si>
+    <t>WJBeta130</t>
+  </si>
+  <si>
+    <t>巅峰对决</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1559,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1581,7 +1587,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1931,10 +1936,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H136"/>
+  <dimension ref="C3:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4294,42 +4299,59 @@
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="135" spans="3:7">
       <c r="C135" s="3">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="5">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="136" spans="3:7">
       <c r="C136" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>262</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="3">
+        <v>203</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="5">
+        <v>203</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="268">
   <si>
     <t>Id</t>
   </si>
@@ -862,6 +862,12 @@
   </si>
   <si>
     <t>巅峰对决</t>
+  </si>
+  <si>
+    <t>WJBeta131</t>
+  </si>
+  <si>
+    <t>花满楼</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1936,10 +1942,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H137"/>
+  <dimension ref="C3:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3588,7 +3594,7 @@
       <c r="G94" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="H94" s="11"/>
     </row>
     <row r="95" spans="3:8">
       <c r="C95" s="3">
@@ -3606,7 +3612,7 @@
       <c r="G95" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" spans="3:8">
       <c r="C96" s="3">
@@ -3624,7 +3630,7 @@
       <c r="G96" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H96" s="10"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="3:8">
       <c r="C97" s="3">
@@ -3642,7 +3648,7 @@
       <c r="G97" t="s">
         <v>186</v>
       </c>
-      <c r="H97" s="10"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" spans="3:8">
       <c r="C98" s="3">
@@ -3652,7 +3658,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>187</v>
@@ -3670,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>189</v>
@@ -3688,7 +3694,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>191</v>
@@ -3706,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>193</v>
@@ -4048,7 +4054,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>231</v>
@@ -4056,7 +4062,7 @@
       <c r="G120" t="s">
         <v>232</v>
       </c>
-      <c r="H120" s="12"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="3:8">
       <c r="C121" s="3">
@@ -4066,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>233</v>
@@ -4074,7 +4080,7 @@
       <c r="G121" t="s">
         <v>234</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="3:8">
       <c r="C122" s="3">
@@ -4184,7 +4190,7 @@
       </c>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="3:7">
+    <row r="128" spans="3:8">
       <c r="C128" s="3">
         <v>123</v>
       </c>
@@ -4200,8 +4206,9 @@
       <c r="G128" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="129" spans="3:7">
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="3:8">
       <c r="C129" s="3">
         <v>124</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="5">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>248</v>
@@ -4217,6 +4224,7 @@
       <c r="G129" t="s">
         <v>249</v>
       </c>
+      <c r="H129" s="10"/>
     </row>
     <row r="130" spans="3:7">
       <c r="C130" s="3">
@@ -4322,36 +4330,53 @@
     </row>
     <row r="136" spans="3:7">
       <c r="C136" s="3">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="5">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="137" spans="3:7">
       <c r="C137" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" s="3">
+        <v>203</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="5">
+        <v>203</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="269">
   <si>
     <t>Id</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>花满楼</t>
+  </si>
+  <si>
+    <t>WJBeta132</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1076,12 +1079,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1942,10 +1945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H138"/>
+  <dimension ref="C3:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4347,36 +4350,51 @@
     </row>
     <row r="137" spans="3:7">
       <c r="C137" s="3">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E137" s="5">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="G137" s="13"/>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
+        <v>202</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="5">
+        <v>202</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" s="3">
         <v>203</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="5">
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="5">
         <v>203</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="F139" s="5" t="s">
         <v>267</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="270">
   <si>
     <t>Id</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>WJBeta132</t>
+  </si>
+  <si>
+    <t>星辰之怒</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1574,7 +1577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,6 +1599,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1948,7 +1952,7 @@
   <dimension ref="C3:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4361,7 +4365,9 @@
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="13"/>
+      <c r="G137" s="14" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
@@ -4374,10 +4380,10 @@
         <v>202</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="3:7">
@@ -4391,10 +4397,10 @@
         <v>203</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -874,6 +874,9 @@
   </si>
   <si>
     <t>星辰之怒</t>
+  </si>
+  <si>
+    <t>WJBeta133</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1082,12 +1085,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1577,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1599,7 +1602,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1949,10 +1951,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H139"/>
+  <dimension ref="C3:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4365,42 +4367,57 @@
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E138" s="5">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="G138"/>
     </row>
     <row r="139" spans="3:7">
       <c r="C139" s="3">
+        <v>202</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="5">
+        <v>202</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="3">
         <v>203</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="5">
+      <c r="D140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="5">
         <v>203</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G139" s="2" t="s">
+      <c r="F140" s="5" t="s">
         <v>269</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="272">
   <si>
     <t>Id</t>
   </si>
@@ -877,6 +877,9 @@
   </si>
   <si>
     <t>WJBeta133</t>
+  </si>
+  <si>
+    <t>奇迹之光</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1580,7 +1583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1602,6 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1954,7 +1958,7 @@
   <dimension ref="C3:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4384,7 +4388,9 @@
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138"/>
+      <c r="G138" s="14" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="139" spans="3:7">
       <c r="C139" s="3">
@@ -4397,10 +4403,10 @@
         <v>202</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="3:7">
@@ -4414,10 +4420,10 @@
         <v>203</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="274">
   <si>
     <t>Id</t>
   </si>
@@ -880,6 +880,12 @@
   </si>
   <si>
     <t>奇迹之光</t>
+  </si>
+  <si>
+    <t>WJBeta134</t>
+  </si>
+  <si>
+    <t>风暴之怒</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1583,7 +1589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1605,7 +1611,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1955,13 +1960,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H140"/>
+  <dimension ref="C3:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A132" sqref="$A132:$XFD134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -3815,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>203</v>
@@ -3823,7 +3828,7 @@
       <c r="G106" t="s">
         <v>204</v>
       </c>
-      <c r="H106" s="11"/>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="3:8">
       <c r="C107" s="3">
@@ -3833,7 +3838,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>205</v>
@@ -3841,7 +3846,7 @@
       <c r="G107" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H107" s="11"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="3:8">
       <c r="C108" s="3">
@@ -3851,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="E108" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>207</v>
@@ -3859,7 +3864,7 @@
       <c r="G108" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H108" s="11"/>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="3:8">
       <c r="C109" s="3">
@@ -3869,7 +3874,7 @@
         <v>9</v>
       </c>
       <c r="E109" s="5">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>209</v>
@@ -3877,7 +3882,7 @@
       <c r="G109" t="s">
         <v>210</v>
       </c>
-      <c r="H109" s="11"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="3:8">
       <c r="C110" s="3">
@@ -4111,7 +4116,7 @@
       <c r="G122" t="s">
         <v>236</v>
       </c>
-      <c r="H122" s="11"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" spans="3:8">
       <c r="C123" s="3">
@@ -4129,7 +4134,7 @@
       <c r="G123" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="H123" s="11"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" spans="3:8">
       <c r="C124" s="3">
@@ -4139,7 +4144,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="5">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>239</v>
@@ -4157,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="5">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>241</v>
@@ -4239,7 +4244,7 @@
       </c>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="3:7">
+    <row r="130" spans="3:8">
       <c r="C130" s="3">
         <v>125</v>
       </c>
@@ -4255,8 +4260,9 @@
       <c r="G130" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="131" spans="3:7">
+      <c r="H130" s="11"/>
+    </row>
+    <row r="131" spans="3:8">
       <c r="C131" s="3">
         <v>126</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>9</v>
       </c>
       <c r="E131" s="5">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>252</v>
@@ -4272,8 +4278,9 @@
       <c r="G131" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="132" spans="3:7">
+      <c r="H131" s="11"/>
+    </row>
+    <row r="132" spans="3:8">
       <c r="C132" s="3">
         <v>127</v>
       </c>
@@ -4289,8 +4296,9 @@
       <c r="G132" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="133" spans="3:7">
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="3:9">
       <c r="C133" s="3">
         <v>128</v>
       </c>
@@ -4306,8 +4314,9 @@
       <c r="G133" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="134" spans="3:7">
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="3:8">
       <c r="C134" s="3">
         <v>129</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>9</v>
       </c>
       <c r="E134" s="5">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
@@ -4323,6 +4332,7 @@
       <c r="G134" s="13" t="s">
         <v>259</v>
       </c>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" spans="3:7">
       <c r="C135" s="3">
@@ -4388,42 +4398,59 @@
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="13" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="139" spans="3:7">
       <c r="C139" s="3">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E139" s="5">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="13" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="140" spans="3:7">
       <c r="C140" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>270</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" s="3">
+        <v>203</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="5">
+        <v>203</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="276">
   <si>
     <t>Id</t>
   </si>
@@ -886,6 +886,12 @@
   </si>
   <si>
     <t>风暴之怒</t>
+  </si>
+  <si>
+    <t>WJBeta135</t>
+  </si>
+  <si>
+    <t>永恒之境</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1094,12 +1100,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1960,10 +1966,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I141"/>
+  <dimension ref="C3:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A132" sqref="$A132:$XFD134"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A140" sqref="$A140:$XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4421,36 +4427,53 @@
     </row>
     <row r="140" spans="3:7">
       <c r="C140" s="3">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="5">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="13" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="141" spans="3:7">
       <c r="C141" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>272</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" s="3">
+        <v>203</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="5">
+        <v>203</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="278">
   <si>
     <t>Id</t>
   </si>
@@ -892,6 +892,12 @@
   </si>
   <si>
     <t>永恒之境</t>
+  </si>
+  <si>
+    <t>WJBeta136</t>
+  </si>
+  <si>
+    <t>烽火狼烟</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1100,18 +1106,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,6 +1151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,7 +1483,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,16 +1507,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1513,89 +1525,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,8 +1628,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1966,10 +1979,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I142"/>
+  <dimension ref="C3:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A140" sqref="$A140:$XFD140"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3906,7 +3919,7 @@
       <c r="G110" t="s">
         <v>212</v>
       </c>
-      <c r="H110" s="10"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="3:8">
       <c r="C111" s="3">
@@ -3924,7 +3937,7 @@
       <c r="G111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H111" s="10"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="3">
@@ -3942,7 +3955,7 @@
       <c r="G112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H112" s="10"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="3:8">
       <c r="C113" s="3">
@@ -3960,7 +3973,7 @@
       <c r="G113" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H113" s="10"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="114" spans="3:8">
       <c r="C114" s="3">
@@ -3970,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="E114" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>219</v>
@@ -3978,7 +3991,7 @@
       <c r="G114" t="s">
         <v>220</v>
       </c>
-      <c r="H114" s="12"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" spans="3:8">
       <c r="C115" s="3">
@@ -3988,7 +4001,7 @@
         <v>9</v>
       </c>
       <c r="E115" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>221</v>
@@ -3996,7 +4009,7 @@
       <c r="G115" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H115" s="12"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="3">
@@ -4006,7 +4019,7 @@
         <v>9</v>
       </c>
       <c r="E116" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>223</v>
@@ -4014,7 +4027,7 @@
       <c r="G116" t="s">
         <v>224</v>
       </c>
-      <c r="H116" s="12"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="3">
@@ -4024,7 +4037,7 @@
         <v>9</v>
       </c>
       <c r="E117" s="5">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>225</v>
@@ -4032,7 +4045,7 @@
       <c r="G117" t="s">
         <v>226</v>
       </c>
-      <c r="H117" s="12"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118" spans="3:8">
       <c r="C118" s="3">
@@ -4065,7 +4078,7 @@
       <c r="F119" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="G119" s="12" t="s">
         <v>230</v>
       </c>
       <c r="H119" s="10"/>
@@ -4122,7 +4135,7 @@
       <c r="G122" t="s">
         <v>236</v>
       </c>
-      <c r="H122" s="12"/>
+      <c r="H122" s="13"/>
     </row>
     <row r="123" spans="3:8">
       <c r="C123" s="3">
@@ -4137,10 +4150,10 @@
       <c r="F123" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="H123" s="12"/>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="3:8">
       <c r="C124" s="3">
@@ -4158,7 +4171,7 @@
       <c r="G124" t="s">
         <v>240</v>
       </c>
-      <c r="H124" s="12"/>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="3:8">
       <c r="C125" s="3">
@@ -4176,7 +4189,7 @@
       <c r="G125" t="s">
         <v>242</v>
       </c>
-      <c r="H125" s="12"/>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="3:8">
       <c r="C126" s="3">
@@ -4209,7 +4222,7 @@
       <c r="F127" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="G127" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H127" s="11"/>
@@ -4302,7 +4315,7 @@
       <c r="G132" t="s">
         <v>255</v>
       </c>
-      <c r="H132" s="12"/>
+      <c r="H132" s="13"/>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" s="3">
@@ -4320,7 +4333,7 @@
       <c r="G133" t="s">
         <v>257</v>
       </c>
-      <c r="I133" s="12"/>
+      <c r="I133" s="13"/>
     </row>
     <row r="134" spans="3:8">
       <c r="C134" s="3">
@@ -4335,12 +4348,12 @@
       <c r="F134" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G134" s="13" t="s">
+      <c r="G134" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="H134" s="12"/>
-    </row>
-    <row r="135" spans="3:7">
+      <c r="H134" s="13"/>
+    </row>
+    <row r="135" spans="3:8">
       <c r="C135" s="3">
         <v>130</v>
       </c>
@@ -4348,7 +4361,7 @@
         <v>9</v>
       </c>
       <c r="E135" s="5">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
@@ -4356,8 +4369,9 @@
       <c r="G135" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="136" spans="3:7">
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="3:8">
       <c r="C136" s="3">
         <v>131</v>
       </c>
@@ -4373,8 +4387,9 @@
       <c r="G136" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="137" spans="3:7">
+      <c r="H136" s="10"/>
+    </row>
+    <row r="137" spans="3:8">
       <c r="C137" s="3">
         <v>132</v>
       </c>
@@ -4382,14 +4397,15 @@
         <v>9</v>
       </c>
       <c r="E137" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G137" s="13" t="s">
+      <c r="G137" s="12" t="s">
         <v>265</v>
       </c>
+      <c r="H137" s="10"/>
     </row>
     <row r="138" spans="3:7">
       <c r="C138" s="3">
@@ -4404,7 +4420,7 @@
       <c r="F138" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G138" s="13" t="s">
+      <c r="G138" s="12" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4421,7 +4437,7 @@
       <c r="F139" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G139" s="13" t="s">
+      <c r="G139" s="12" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4438,42 +4454,59 @@
       <c r="F140" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G140" s="13" t="s">
+      <c r="G140" s="12" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="141" spans="3:7">
       <c r="C141" s="3">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E141" s="5">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="142" spans="3:7">
       <c r="C142" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>274</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="3">
+        <v>203</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="5">
+        <v>203</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="280">
   <si>
     <t>Id</t>
   </si>
@@ -898,6 +898,12 @@
   </si>
   <si>
     <t>烽火狼烟</t>
+  </si>
+  <si>
+    <t>WJBeta137</t>
+  </si>
+  <si>
+    <t>千山万水</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1117,7 +1123,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,12 +1157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1483,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,16 +1507,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1525,89 +1525,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1630,7 +1630,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1979,10 +1978,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I143"/>
+  <dimension ref="C3:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4369,7 +4368,7 @@
       <c r="G135" t="s">
         <v>261</v>
       </c>
-      <c r="H135" s="14"/>
+      <c r="H135" s="13"/>
     </row>
     <row r="136" spans="3:8">
       <c r="C136" s="3">
@@ -4477,36 +4476,53 @@
     </row>
     <row r="142" spans="3:7">
       <c r="C142" s="3">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E142" s="5">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G142" s="12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="143" spans="3:7">
       <c r="C143" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>276</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="C144" s="3">
+        <v>203</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="5">
+        <v>203</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="282">
   <si>
     <t>Id</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>千山万水</t>
+  </si>
+  <si>
+    <t>WJBeta138</t>
+  </si>
+  <si>
+    <t>凤凰于飞</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1978,10 +1984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I144"/>
+  <dimension ref="C3:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4126,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="E122" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>235</v>
@@ -4134,7 +4140,7 @@
       <c r="G122" t="s">
         <v>236</v>
       </c>
-      <c r="H122" s="13"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="3:8">
       <c r="C123" s="3">
@@ -4144,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>237</v>
@@ -4152,7 +4158,7 @@
       <c r="G123" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="H123" s="13"/>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="3:8">
       <c r="C124" s="3">
@@ -4162,7 +4168,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>239</v>
@@ -4170,7 +4176,7 @@
       <c r="G124" t="s">
         <v>240</v>
       </c>
-      <c r="H124" s="13"/>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="3:8">
       <c r="C125" s="3">
@@ -4180,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="E125" s="5">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>241</v>
@@ -4188,7 +4194,7 @@
       <c r="G125" t="s">
         <v>242</v>
       </c>
-      <c r="H125" s="13"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="3:8">
       <c r="C126" s="3">
@@ -4206,7 +4212,7 @@
       <c r="G126" t="s">
         <v>244</v>
       </c>
-      <c r="H126" s="11"/>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="3:8">
       <c r="C127" s="3">
@@ -4224,7 +4230,7 @@
       <c r="G127" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H127" s="11"/>
+      <c r="H127" s="13"/>
     </row>
     <row r="128" spans="3:8">
       <c r="C128" s="3">
@@ -4234,7 +4240,7 @@
         <v>9</v>
       </c>
       <c r="E128" s="5">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>246</v>
@@ -4242,7 +4248,7 @@
       <c r="G128" t="s">
         <v>247</v>
       </c>
-      <c r="H128" s="10"/>
+      <c r="H128" s="13"/>
     </row>
     <row r="129" spans="3:8">
       <c r="C129" s="3">
@@ -4252,7 +4258,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="5">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>248</v>
@@ -4260,7 +4266,7 @@
       <c r="G129" t="s">
         <v>249</v>
       </c>
-      <c r="H129" s="10"/>
+      <c r="H129" s="13"/>
     </row>
     <row r="130" spans="3:8">
       <c r="C130" s="3">
@@ -4406,7 +4412,7 @@
       </c>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" spans="3:7">
+    <row r="138" spans="3:8">
       <c r="C138" s="3">
         <v>133</v>
       </c>
@@ -4422,8 +4428,9 @@
       <c r="G138" s="12" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="139" spans="3:7">
+      <c r="H138" s="13"/>
+    </row>
+    <row r="139" spans="3:8">
       <c r="C139" s="3">
         <v>134</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="E139" s="5">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>268</v>
@@ -4439,6 +4446,7 @@
       <c r="G139" s="12" t="s">
         <v>269</v>
       </c>
+      <c r="H139" s="13"/>
     </row>
     <row r="140" spans="3:7">
       <c r="C140" s="3">
@@ -4493,36 +4501,53 @@
     </row>
     <row r="143" spans="3:7">
       <c r="C143" s="3">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E143" s="5">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="144" spans="3:7">
       <c r="C144" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>278</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="3">
+        <v>203</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="5">
+        <v>203</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="285">
   <si>
     <t>Id</t>
   </si>
@@ -910,6 +910,15 @@
   </si>
   <si>
     <t>凤凰于飞</t>
+  </si>
+  <si>
+    <t>WJBeta139</t>
+  </si>
+  <si>
+    <t>WJBeta140</t>
+  </si>
+  <si>
+    <t>WJBeta141</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1984,10 +1993,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I145"/>
+  <dimension ref="C3:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A144" sqref="$A144:$XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4518,36 +4527,81 @@
     </row>
     <row r="144" spans="3:7">
       <c r="C144" s="3">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E144" s="5">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G144" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" spans="3:7">
       <c r="C145" s="3">
+        <v>140</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="5">
+        <v>140</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="3:7">
+      <c r="C146" s="3">
+        <v>141</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="5">
+        <v>141</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="3">
+        <v>202</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="5">
+        <v>202</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="3">
         <v>203</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="5">
+      <c r="D148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5">
         <v>203</v>
       </c>
-      <c r="F145" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>281</v>
+      <c r="F148" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="286">
   <si>
     <t>Id</t>
   </si>
@@ -913,6 +913,9 @@
   </si>
   <si>
     <t>WJBeta139</t>
+  </si>
+  <si>
+    <t>吉祥如意</t>
   </si>
   <si>
     <t>WJBeta140</t>
@@ -1996,7 +1999,7 @@
   <dimension ref="C3:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A144" sqref="$A144:$XFD146"/>
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4538,7 +4541,9 @@
       <c r="F144" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G144" s="12"/>
+      <c r="G144" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="145" spans="3:7">
       <c r="C145" s="3">
@@ -4551,7 +4556,7 @@
         <v>140</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G145" s="12"/>
     </row>
@@ -4566,7 +4571,7 @@
         <v>141</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G146" s="12"/>
     </row>
@@ -4581,10 +4586,10 @@
         <v>202</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="3:7">
@@ -4598,10 +4603,10 @@
         <v>203</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -922,6 +922,9 @@
   </si>
   <si>
     <t>WJBeta141</t>
+  </si>
+  <si>
+    <t>WJBeta142</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1996,10 +1999,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I148"/>
+  <dimension ref="C3:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4558,7 +4561,9 @@
       <c r="F145" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G145" s="12"/>
+      <c r="G145" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="146" spans="3:7">
       <c r="C146" s="3">
@@ -4573,40 +4578,57 @@
       <c r="F146" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G146" s="12"/>
+      <c r="G146" s="12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="147" spans="3:7">
       <c r="C147" s="3">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E147" s="5">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" spans="3:7">
       <c r="C148" s="3">
+        <v>202</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5">
+        <v>202</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7">
+      <c r="C149" s="3">
         <v>203</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="5">
+      <c r="D149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="5">
         <v>203</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="F149" s="5" t="s">
         <v>285</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -2002,7 +2002,7 @@
   <dimension ref="C3:I149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4595,7 +4595,9 @@
       <c r="F147" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G147" s="12"/>
+      <c r="G147" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="148" spans="3:7">
       <c r="C148" s="3">

--- a/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
+++ b/Excel/StartConfig/Beta/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="288">
   <si>
     <t>Id</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>WJBeta142</t>
+  </si>
+  <si>
+    <t>WJBeta143</t>
   </si>
   <si>
     <t>WJBeta202(center)</t>
@@ -1999,10 +2002,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I149"/>
+  <dimension ref="C3:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4299,7 +4302,7 @@
       <c r="G130" t="s">
         <v>251</v>
       </c>
-      <c r="H130" s="11"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="3:8">
       <c r="C131" s="3">
@@ -4317,7 +4320,7 @@
       <c r="G131" t="s">
         <v>253</v>
       </c>
-      <c r="H131" s="11"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="3:8">
       <c r="C132" s="3">
@@ -4327,7 +4330,7 @@
         <v>9</v>
       </c>
       <c r="E132" s="5">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>254</v>
@@ -4335,7 +4338,7 @@
       <c r="G132" t="s">
         <v>255</v>
       </c>
-      <c r="H132" s="13"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" s="3">
@@ -4363,7 +4366,7 @@
         <v>9</v>
       </c>
       <c r="E134" s="5">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>258</v>
@@ -4371,7 +4374,7 @@
       <c r="G134" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="H134" s="13"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="3:8">
       <c r="C135" s="3">
@@ -4381,7 +4384,7 @@
         <v>9</v>
       </c>
       <c r="E135" s="5">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>260</v>
@@ -4389,7 +4392,7 @@
       <c r="G135" t="s">
         <v>261</v>
       </c>
-      <c r="H135" s="13"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="3:8">
       <c r="C136" s="3">
@@ -4407,7 +4410,7 @@
       <c r="G136" t="s">
         <v>263</v>
       </c>
-      <c r="H136" s="10"/>
+      <c r="H136" s="13"/>
     </row>
     <row r="137" spans="3:8">
       <c r="C137" s="3">
@@ -4425,7 +4428,7 @@
       <c r="G137" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="H137" s="10"/>
+      <c r="H137" s="13"/>
     </row>
     <row r="138" spans="3:8">
       <c r="C138" s="3">
@@ -4435,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="E138" s="5">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>266</v>
@@ -4453,7 +4456,7 @@
         <v>9</v>
       </c>
       <c r="E139" s="5">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>268</v>
@@ -4463,7 +4466,7 @@
       </c>
       <c r="H139" s="13"/>
     </row>
-    <row r="140" spans="3:7">
+    <row r="140" spans="3:8">
       <c r="C140" s="3">
         <v>135</v>
       </c>
@@ -4479,8 +4482,9 @@
       <c r="G140" s="12" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="141" spans="3:7">
+      <c r="H140" s="10"/>
+    </row>
+    <row r="141" spans="3:8">
       <c r="C141" s="3">
         <v>136</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="5">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>272</v>
@@ -4496,8 +4500,9 @@
       <c r="G141" s="12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="142" spans="3:7">
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="3:8">
       <c r="C142" s="3">
         <v>137</v>
       </c>
@@ -4513,8 +4518,9 @@
       <c r="G142" s="12" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="143" spans="3:7">
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="3:8">
       <c r="C143" s="3">
         <v>138</v>
       </c>
@@ -4522,7 +4528,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="5">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>276</v>
@@ -4530,6 +4536,7 @@
       <c r="G143" s="12" t="s">
         <v>277</v>
       </c>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="3:7">
       <c r="C144" s="3">
@@ -4601,36 +4608,51 @@
     </row>
     <row r="148" spans="3:7">
       <c r="C148" s="3">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="5">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="G148" s="12"/>
     </row>
     <row r="149" spans="3:7">
       <c r="C149" s="3">
+        <v>202</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="5">
+        <v>202</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7">
+      <c r="C150" s="3">
         <v>203</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" s="5">
+      <c r="D150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="5">
         <v>203</v>
       </c>
-      <c r="F149" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G149" s="2" t="s">
+      <c r="F150" s="5" t="s">
         <v>286</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
